--- a/myrpc/data/exp-myrpc-gorpc.xlsx
+++ b/myrpc/data/exp-myrpc-gorpc.xlsx
@@ -89,6 +89,148 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MyRPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8647.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go RPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>68.733333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="88987904"/>
+        <c:axId val="89068288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88987904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89068288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89068288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88987904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,6 +887,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
